--- a/biology/Botanique/Louise_Bonne/Louise_Bonne.xlsx
+++ b/biology/Botanique/Louise_Bonne/Louise_Bonne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La  Louise Bonne est une variété ancienne de poire.
 </t>
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La variété a été obtenue en France, à Charroux (Vienne), en 1668. Jean de Vivonne l'a sans doute trouvée et dédiée à sa femme Louise de Torchart[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La variété a été obtenue en France, à Charroux (Vienne), en 1668. Jean de Vivonne l'a sans doute trouvée et dédiée à sa femme Louise de Torchart.
 </t>
         </is>
       </c>
@@ -542,12 +556,14 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Louise Bonne Ancienne,
 Saint-Germain Blanc d'Automne,
 Whare gute Louise,
-Frühe Saint Germain[1].
+Frühe Saint Germain.
 Bonne Louise Duhamel,
 Glatte Saint Germain,
 Louise Bonne de Duhamel,
@@ -556,9 +572,9 @@
 Louise de Torchart,
 Louise de Vivonne,
 Saint Germain Blanc,
-Loüise-Bonne[2].
+Loüise-Bonne.
 Cette poire cultivée par La Quintinie, jardinier à Versailles, plaisait fort à Louis XIV. 
-Elle ne doit pas être confondue avec la Louise-Bonne d'Avranches[1].
+Elle ne doit pas être confondue avec la Louise-Bonne d'Avranches.
 </t>
         </is>
       </c>
@@ -589,8 +605,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fruit
-La poire est d'une grosseur au-dessus de la moyenne ou moyenne.
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La poire est d'une grosseur au-dessus de la moyenne ou moyenne.
 De forme variable, elle passe habituellement de l'ovoïde assez irrégulière et ventrue, à turbinée très allongée, légèrement pentagonale à la base et très peu renflée.
 Le pédoncule se révèle de longueur moyenne, ou court, mince à son milieu, beaucoup plus fort à ses extrémités, recourbé, obliquement implanté à fleur de peau ou se continuant avec le fruit.
 Œil moyen, arrondi, ouvert, presque saillant.
@@ -599,14 +620,49 @@
 Goût du fruit : eau abondante, peu sucrée, généralement douçâtre et dénuée de parfum.
 C'est un fruit de troisième qualité pour le couteau, première pour la compote.
 Usage culinaire : compote.
-Période de fructification: octobre,novembre, décembre[2].
-Le code PLU du fruit est 3377[3].
-Arbre
-Le bois est fort, avec des rameaux très nombreux, érigés, longs et de moyenne grosseur, légèrement coudés, vert grisâtre ou jaunâtre, ayant les lenticelles larges, rapprochées, et les coussinets peu saillants.
+Période de fructification: octobre,novembre, décembre.
+Le code PLU du fruit est 3377.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Louise_Bonne</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louise_Bonne</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Arbre</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bois est fort, avec des rameaux très nombreux, érigés, longs et de moyenne grosseur, légèrement coudés, vert grisâtre ou jaunâtre, ayant les lenticelles larges, rapprochées, et les coussinets peu saillants.
 Yeux assez petits ou moyens, ovoïdes ou coniques, aigus, duveteux, rarement bien écartés du bois.
 Feuilles régulièrement elliptiques-arrondies, canaliculées, finement dentelées ou crénelées, au pétiole court et épais.
 Fertilité remarquable.
-Ce poirier n'a rien d'exceptionnel dans sa croissance. On le greffe sur cognassier ou sur franc. Ses pyramides sont magnifiques[2].
+Ce poirier n'a rien d'exceptionnel dans sa croissance. On le greffe sur cognassier ou sur franc. Ses pyramides sont magnifiques.
 </t>
         </is>
       </c>
